--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC55- TORNILLOS CANULADOS 6.5 ACERO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC55- TORNILLOS CANULADOS 6.5 ACERO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F177923-41AE-4CA8-8310-78211F98F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AD4E8FEF-2003-411C-B933-150F735667E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="735" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -504,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -972,7 +961,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1062,19 +1051,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,7 +1099,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,10 +1134,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1289,9 +1278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1329,7 +1318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1435,7 +1424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1577,7 +1566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1588,7 +1577,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:C74"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1646,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="56">
         <f ca="1">NOW()</f>
-        <v>45394.574317013889</v>
+        <v>45397.927178819446</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>20</v>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC55- TORNILLOS CANULADOS 6.5 ACERO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC55- TORNILLOS CANULADOS 6.5 ACERO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{AD4E8FEF-2003-411C-B933-150F735667E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DB88F-D3E3-47B8-AD44-4E68A2DB37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="735" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -493,10 +504,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -961,7 +972,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1051,19 +1062,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,7 +1110,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,10 +1145,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1278,9 +1289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1318,7 +1329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1424,7 +1435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1566,7 +1577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1576,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1657,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="56">
         <f ca="1">NOW()</f>
-        <v>45397.927178819446</v>
+        <v>45398.628369791666</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>20</v>
@@ -2166,7 +2177,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="34"/>
@@ -2221,7 +2232,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="46">
         <f>SUM(D25:D40)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="34"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC55- TORNILLOS CANULADOS 6.5 ACERO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC55- TORNILLOS CANULADOS 6.5 ACERO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DB88F-D3E3-47B8-AD44-4E68A2DB37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4139B793-27DC-458A-A778-8270254500C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1050" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -504,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -972,7 +961,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1062,19 +1051,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,7 +1099,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,10 +1134,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1289,9 +1278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1329,7 +1318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1435,7 +1424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1577,7 +1566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1588,7 +1577,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1646,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="56">
         <f ca="1">NOW()</f>
-        <v>45398.628369791666</v>
+        <v>45401.70112766204</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>20</v>
